--- a/data/study_4.xlsx
+++ b/data/study_4.xlsx
@@ -5,17 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="data1" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="data2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="data3" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$1:$F$137</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2'!$A$1:$F$137</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">data3!$A$1:$B$7</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet5!$A$1:$F$103</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="68">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -196,17 +200,54 @@
   <si>
     <t xml:space="preserve"> 648.00000s</t>
   </si>
+  <si>
+    <t xml:space="preserve">Current density @ insulated                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9074.00000s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3013.00000s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5907.00000s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8012.00000s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11429.00000s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10862.00000s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -283,7 +324,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,6 +347,18 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -389,7 +442,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -524,11 +577,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="74838454"/>
-        <c:axId val="49964029"/>
+        <c:axId val="39084007"/>
+        <c:axId val="50142483"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74838454"/>
+        <c:axId val="39084007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,12 +646,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49964029"/>
+        <c:crossAx val="50142483"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49964029"/>
+        <c:axId val="50142483"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,9 +716,235 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74838454"/>
+        <c:crossAx val="39084007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>area_fraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$F$2:$F$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$E$2:$E$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="20171170"/>
+        <c:axId val="73095444"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="20171170"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73095444"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73095444"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20171170"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -726,9 +1005,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>752400</xdr:colOff>
+      <xdr:colOff>752040</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -736,8 +1015,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4665960" y="2027520"/>
-        <a:ext cx="7079040" cy="4498920"/>
+        <a:off x="4667040" y="2027520"/>
+        <a:ext cx="7087680" cy="4498560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -748,6 +1027,45 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106200</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7453080" y="36000"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -761,7 +1079,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="34.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.59"/>
@@ -2742,10 +3060,10 @@
   <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.17"/>
@@ -4743,11 +5061,11 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
   </cols>
@@ -4846,7 +5164,7 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
   </cols>
@@ -4932,4 +5250,1955 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="true">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F103"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.95"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>6.2499E-009</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">$D12/$D11</f>
+        <v>0.23573</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <f aca="false">RIGHT(B3, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>6.25E-008</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="0" t="str">
+        <f aca="false">RIGHT(B4, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>-3771.8</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <f aca="false">RIGHT(B5, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>391.39</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <f aca="false">RIGHT(B6, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1.1875E-007</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <f aca="false">RIGHT(B7, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1.875E-007</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <f aca="false">RIGHT(B8, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>3.9062E-012</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">RIGHT(B9, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">RIGHT(B10, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">RIGHT(B11, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0.023573</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">RIGHT(B12, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <f aca="false">RIGHT(B13, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">RIGHT(B14, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">RIGHT(B15, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">RIGHT(B16, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <f aca="false">RIGHT(B17, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <f aca="false">RIGHT(B18, 3)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <f aca="false">RIGHT(B19, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>1.25E-008</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">$D29/$D28</f>
+        <v>0.38074</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <f aca="false">RIGHT(B20, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>6.25E-008</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <f aca="false">RIGHT(B21, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>-3046</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <f aca="false">RIGHT(B22, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>627.06</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <f aca="false">RIGHT(B23, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>1.125E-007</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <f aca="false">RIGHT(B24, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>1.875E-007</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <f aca="false">RIGHT(B25, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>3.9062E-012</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <f aca="false">RIGHT(B26, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="str">
+        <f aca="false">RIGHT(B27, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="0" t="str">
+        <f aca="false">RIGHT(B28, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>0.038074</v>
+      </c>
+      <c r="F29" s="0" t="str">
+        <f aca="false">RIGHT(B29, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>-18.6</v>
+      </c>
+      <c r="F30" s="0" t="str">
+        <f aca="false">RIGHT(B30, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>-18.6</v>
+      </c>
+      <c r="F31" s="0" t="str">
+        <f aca="false">RIGHT(B31, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>0.0289</v>
+      </c>
+      <c r="F32" s="0" t="str">
+        <f aca="false">RIGHT(B32, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="0" t="str">
+        <f aca="false">RIGHT(B33, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="str">
+        <f aca="false">RIGHT(B34, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="0" t="str">
+        <f aca="false">RIGHT(B35, 3)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="0" t="str">
+        <f aca="false">RIGHT(B36, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>1.875E-008</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">$D46/$D45</f>
+        <v>0.50332</v>
+      </c>
+      <c r="F37" s="0" t="str">
+        <f aca="false">RIGHT(B37, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>6.25E-008</v>
+      </c>
+      <c r="F38" s="0" t="str">
+        <f aca="false">RIGHT(B38, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>-2684.4</v>
+      </c>
+      <c r="F39" s="0" t="str">
+        <f aca="false">RIGHT(B39, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>857.2</v>
+      </c>
+      <c r="F40" s="0" t="str">
+        <f aca="false">RIGHT(B40, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>1.0625E-007</v>
+      </c>
+      <c r="F41" s="0" t="str">
+        <f aca="false">RIGHT(B41, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>1.875E-007</v>
+      </c>
+      <c r="F42" s="0" t="str">
+        <f aca="false">RIGHT(B42, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>3.9062E-012</v>
+      </c>
+      <c r="F43" s="0" t="str">
+        <f aca="false">RIGHT(B43, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="str">
+        <f aca="false">RIGHT(B44, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="0" t="str">
+        <f aca="false">RIGHT(B45, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>0.050332</v>
+      </c>
+      <c r="F46" s="0" t="str">
+        <f aca="false">RIGHT(B46, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>-37.2</v>
+      </c>
+      <c r="F47" s="0" t="str">
+        <f aca="false">RIGHT(B47, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>-37.2</v>
+      </c>
+      <c r="F48" s="0" t="str">
+        <f aca="false">RIGHT(B48, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>0.0624</v>
+      </c>
+      <c r="F49" s="0" t="str">
+        <f aca="false">RIGHT(B49, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="0" t="str">
+        <f aca="false">RIGHT(B50, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="str">
+        <f aca="false">RIGHT(B51, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="0" t="str">
+        <f aca="false">RIGHT(B52, 3)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="0" t="str">
+        <f aca="false">RIGHT(B53, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>4.6875E-008</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <f aca="false">$D63/$D62</f>
+        <v>0.89212</v>
+      </c>
+      <c r="F54" s="0" t="str">
+        <f aca="false">RIGHT(B54, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>6.25E-008</v>
+      </c>
+      <c r="F55" s="0" t="str">
+        <f aca="false">RIGHT(B55, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>-1903.2</v>
+      </c>
+      <c r="F56" s="0" t="str">
+        <f aca="false">RIGHT(B56, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>1469.6</v>
+      </c>
+      <c r="F57" s="0" t="str">
+        <f aca="false">RIGHT(B57, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>7.8125E-008</v>
+      </c>
+      <c r="F58" s="0" t="str">
+        <f aca="false">RIGHT(B58, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>1.875E-007</v>
+      </c>
+      <c r="F59" s="0" t="str">
+        <f aca="false">RIGHT(B59, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>3.9062E-012</v>
+      </c>
+      <c r="F60" s="0" t="str">
+        <f aca="false">RIGHT(B60, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="0" t="str">
+        <f aca="false">RIGHT(B61, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F62" s="0" t="str">
+        <f aca="false">RIGHT(B62, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>0.089212</v>
+      </c>
+      <c r="F63" s="0" t="str">
+        <f aca="false">RIGHT(B63, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>-7.05</v>
+      </c>
+      <c r="F64" s="0" t="str">
+        <f aca="false">RIGHT(B64, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>-7.05</v>
+      </c>
+      <c r="F65" s="0" t="str">
+        <f aca="false">RIGHT(B65, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="4" t="n">
+        <v>0.0292</v>
+      </c>
+      <c r="F66" s="0" t="str">
+        <f aca="false">RIGHT(B66, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="0" t="str">
+        <f aca="false">RIGHT(B67, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" s="0" t="str">
+        <f aca="false">RIGHT(B68, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="0" t="str">
+        <f aca="false">RIGHT(B69, 3)</f>
+        <v>.75</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="0" t="str">
+        <f aca="false">RIGHT(B70, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>3.75E-008</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <f aca="false">$D80/$D79</f>
+        <v>0.80279</v>
+      </c>
+      <c r="F71" s="0" t="str">
+        <f aca="false">RIGHT(B71, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>6.25E-008</v>
+      </c>
+      <c r="F72" s="0" t="str">
+        <f aca="false">RIGHT(B72, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>-2140.8</v>
+      </c>
+      <c r="F73" s="0" t="str">
+        <f aca="false">RIGHT(B73, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>1329</v>
+      </c>
+      <c r="F74" s="0" t="str">
+        <f aca="false">RIGHT(B74, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>8.75E-008</v>
+      </c>
+      <c r="F75" s="0" t="str">
+        <f aca="false">RIGHT(B75, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>1.875E-007</v>
+      </c>
+      <c r="F76" s="0" t="str">
+        <f aca="false">RIGHT(B76, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>3.9062E-012</v>
+      </c>
+      <c r="F77" s="0" t="str">
+        <f aca="false">RIGHT(B77, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="0" t="str">
+        <f aca="false">RIGHT(B78, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F79" s="0" t="str">
+        <f aca="false">RIGHT(B79, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>0.080279</v>
+      </c>
+      <c r="F80" s="0" t="str">
+        <f aca="false">RIGHT(B80, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>-27.3</v>
+      </c>
+      <c r="F81" s="0" t="str">
+        <f aca="false">RIGHT(B81, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>-27.3</v>
+      </c>
+      <c r="F82" s="0" t="str">
+        <f aca="false">RIGHT(B82, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="4" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="F83" s="0" t="str">
+        <f aca="false">RIGHT(B83, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="0" t="str">
+        <f aca="false">RIGHT(B84, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" s="0" t="str">
+        <f aca="false">RIGHT(B85, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="0" t="str">
+        <f aca="false">RIGHT(B86, 3)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="0" t="str">
+        <f aca="false">RIGHT(B87, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>3.125E-008</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <f aca="false">$D97/$D96</f>
+        <v>0.71547</v>
+      </c>
+      <c r="F88" s="0" t="str">
+        <f aca="false">RIGHT(B88, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>6.25E-008</v>
+      </c>
+      <c r="F89" s="0" t="str">
+        <f aca="false">RIGHT(B89, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>-2289.5</v>
+      </c>
+      <c r="F90" s="0" t="str">
+        <f aca="false">RIGHT(B90, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>1224.9</v>
+      </c>
+      <c r="F91" s="0" t="str">
+        <f aca="false">RIGHT(B91, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>9.375E-008</v>
+      </c>
+      <c r="F92" s="0" t="str">
+        <f aca="false">RIGHT(B92, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>1.875E-007</v>
+      </c>
+      <c r="F93" s="0" t="str">
+        <f aca="false">RIGHT(B93, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>3.9062E-012</v>
+      </c>
+      <c r="F94" s="0" t="str">
+        <f aca="false">RIGHT(B94, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="0" t="str">
+        <f aca="false">RIGHT(B95, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F96" s="0" t="str">
+        <f aca="false">RIGHT(B96, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>0.071547</v>
+      </c>
+      <c r="F97" s="0" t="str">
+        <f aca="false">RIGHT(B97, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>-118</v>
+      </c>
+      <c r="F98" s="0" t="str">
+        <f aca="false">RIGHT(B98, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>-118</v>
+      </c>
+      <c r="F99" s="0" t="str">
+        <f aca="false">RIGHT(B99, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="4" t="n">
+        <v>0.0677</v>
+      </c>
+      <c r="F100" s="0" t="str">
+        <f aca="false">RIGHT(B100, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F101" s="0" t="str">
+        <f aca="false">RIGHT(B101, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" s="0" t="str">
+        <f aca="false">RIGHT(B102, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="0" t="str">
+        <f aca="false">RIGHT(B103, 3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F103">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Contact Area @ left cc [sq. m]                 "/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0.23573</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.38074</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.50332</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.71547</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.80279</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.89212</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B7"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>